--- a/data/sample_manufacturing_kpi.xlsx
+++ b/data/sample_manufacturing_kpi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pclay\manufacturing-analytics-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA21C871-1255-4492-B94C-32230B4E10AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1001B-CC30-4841-AF37-DBABAABC0EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1484D96-FBEF-40A8-9F20-4B9453C7FA6A}"/>
+    <workbookView xWindow="2760" yWindow="1164" windowWidth="17280" windowHeight="8928" xr2:uid="{F1484D96-FBEF-40A8-9F20-4B9453C7FA6A}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_manufacturing_kpi" sheetId="1" r:id="rId1"/>
@@ -22,25 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="14">
   <si>
-    <t>Machine</t>
-  </si>
-  <si>
     <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Runtime (minutes)</t>
-  </si>
-  <si>
-    <t>Planned Time (minutes)</t>
-  </si>
-  <si>
-    <t>Good Units</t>
-  </si>
-  <si>
-    <t>Total Units</t>
-  </si>
-  <si>
-    <t>Downtime (minutes)</t>
   </si>
   <si>
     <t>Availability</t>
@@ -62,6 +44,24 @@
   </si>
   <si>
     <t>Machine 3</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>runtime_minutes</t>
+  </si>
+  <si>
+    <t>planned_time_minutes</t>
+  </si>
+  <si>
+    <t>good_units</t>
+  </si>
+  <si>
+    <t>total_units</t>
+  </si>
+  <si>
+    <t>downtime_minutes</t>
   </si>
 </sst>
 </file>
@@ -905,7 +905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B021975E-1111-41E7-9745-E989F9C826EC}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -914,42 +916,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>45611.922569444447</v>
@@ -984,7 +986,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>45613.922569444447</v>
@@ -1019,7 +1021,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>45611.922569444447</v>
@@ -1054,7 +1056,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>45615.922569444447</v>
@@ -1089,7 +1091,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>45627.922569444447</v>
@@ -1124,7 +1126,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>45637.922569444447</v>
@@ -1159,7 +1161,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>45634.922569444447</v>
@@ -1194,7 +1196,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>45630.922569444447</v>
@@ -1229,7 +1231,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>45622.922569444447</v>
@@ -1264,7 +1266,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>45623.922569444447</v>
@@ -1299,7 +1301,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>45636.922569444447</v>
@@ -1334,7 +1336,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>45634.922569444447</v>
@@ -1369,7 +1371,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>45640.922569444447</v>
@@ -1404,7 +1406,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>45618.922569444447</v>
@@ -1439,7 +1441,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
         <v>45626.922569444447</v>
@@ -1474,7 +1476,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>45633.922569444447</v>
@@ -1509,7 +1511,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>45613.922569444447</v>
@@ -1544,7 +1546,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>45634.922569444447</v>
@@ -1579,7 +1581,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
         <v>45621.922569444447</v>
@@ -1614,7 +1616,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
         <v>45616.922569444447</v>
@@ -1649,7 +1651,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1">
         <v>45627.922569444447</v>
@@ -1684,7 +1686,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
         <v>45613.922569444447</v>
@@ -1719,7 +1721,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1">
         <v>45623.922569444447</v>
@@ -1754,7 +1756,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
         <v>45629.922569444447</v>
@@ -1789,7 +1791,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1">
         <v>45627.922569444447</v>
@@ -1824,7 +1826,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1">
         <v>45615.922569444447</v>
@@ -1859,7 +1861,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1">
         <v>45620.922569444447</v>
@@ -1894,7 +1896,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
         <v>45617.922569444447</v>
@@ -1929,7 +1931,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1">
         <v>45632.922569444447</v>
@@ -1964,7 +1966,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <v>45633.922569444447</v>
@@ -1999,7 +2001,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
         <v>45614.922569444447</v>
@@ -2034,7 +2036,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
         <v>45616.922569444447</v>
@@ -2069,7 +2071,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1">
         <v>45621.922569444447</v>
@@ -2104,7 +2106,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
         <v>45615.922569444447</v>
@@ -2139,7 +2141,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1">
         <v>45624.922569444447</v>
@@ -2174,7 +2176,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1">
         <v>45630.922569444447</v>
@@ -2209,7 +2211,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
         <v>45631.922569444447</v>
@@ -2244,7 +2246,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>45629.922569444447</v>
@@ -2279,7 +2281,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1">
         <v>45618.922569444447</v>
@@ -2314,7 +2316,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <v>45613.922569444447</v>
@@ -2349,7 +2351,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
         <v>45626.922569444447</v>
@@ -2384,7 +2386,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1">
         <v>45619.922569444447</v>
@@ -2419,7 +2421,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
         <v>45621.922569444447</v>
@@ -2454,7 +2456,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
         <v>45629.922569444447</v>
@@ -2489,7 +2491,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1">
         <v>45628.922569444447</v>
@@ -2524,7 +2526,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
         <v>45634.922569444447</v>
@@ -2559,7 +2561,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1">
         <v>45624.922569444447</v>
@@ -2594,7 +2596,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1">
         <v>45619.922569444447</v>
@@ -2629,7 +2631,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
         <v>45640.922569444447</v>
@@ -2664,7 +2666,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1">
         <v>45617.922569444447</v>
@@ -2699,7 +2701,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B52" s="1">
         <v>45614.922569444447</v>
@@ -2734,7 +2736,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1">
         <v>45624.922569444447</v>
@@ -2769,7 +2771,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
         <v>45622.922569444447</v>
@@ -2804,7 +2806,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1">
         <v>45620.922569444447</v>
@@ -2839,7 +2841,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B56" s="1">
         <v>45611.922569444447</v>
@@ -2874,7 +2876,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1">
         <v>45638.922569444447</v>
@@ -2909,7 +2911,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B58" s="1">
         <v>45614.922569444447</v>
@@ -2944,7 +2946,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B59" s="1">
         <v>45632.922569444447</v>
@@ -2979,7 +2981,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
         <v>45625.922569444447</v>
@@ -3014,7 +3016,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1">
         <v>45639.922569444447</v>
@@ -3049,7 +3051,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <v>45611.922569444447</v>
@@ -3084,7 +3086,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1">
         <v>45638.922569444447</v>
@@ -3119,7 +3121,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B64" s="1">
         <v>45639.922569444447</v>
@@ -3154,7 +3156,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B65" s="1">
         <v>45635.922569444447</v>
@@ -3189,7 +3191,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1">
         <v>45618.922569444447</v>
@@ -3224,7 +3226,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1">
         <v>45638.922569444447</v>
@@ -3259,7 +3261,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
         <v>45615.922569444447</v>
@@ -3294,7 +3296,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B69" s="1">
         <v>45633.922569444447</v>
@@ -3329,7 +3331,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1">
         <v>45622.922569444447</v>
@@ -3364,7 +3366,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1">
         <v>45618.922569444447</v>
@@ -3399,7 +3401,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B72" s="1">
         <v>45639.922569444447</v>
@@ -3434,7 +3436,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B73" s="1">
         <v>45621.922569444447</v>
@@ -3469,7 +3471,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1">
         <v>45640.922569444447</v>
@@ -3504,7 +3506,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B75" s="1">
         <v>45612.922569444447</v>
@@ -3539,7 +3541,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1">
         <v>45617.922569444447</v>
@@ -3574,7 +3576,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1">
         <v>45620.922569444447</v>
@@ -3609,7 +3611,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1">
         <v>45624.922569444447</v>
@@ -3644,7 +3646,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1">
         <v>45631.922569444447</v>
@@ -3679,7 +3681,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B80" s="1">
         <v>45634.922569444447</v>
@@ -3714,7 +3716,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B81" s="1">
         <v>45634.922569444447</v>
@@ -3749,7 +3751,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1">
         <v>45630.922569444447</v>
@@ -3784,7 +3786,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B83" s="1">
         <v>45618.922569444447</v>
@@ -3819,7 +3821,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1">
         <v>45636.922569444447</v>
@@ -3854,7 +3856,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1">
         <v>45628.922569444447</v>
@@ -3889,7 +3891,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B86" s="1">
         <v>45630.922569444447</v>
@@ -3924,7 +3926,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B87" s="1">
         <v>45627.922569444447</v>
@@ -3959,7 +3961,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B88" s="1">
         <v>45613.922569444447</v>
@@ -3994,7 +3996,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B89" s="1">
         <v>45616.922569444447</v>
@@ -4029,7 +4031,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1">
         <v>45617.922569444447</v>
@@ -4064,7 +4066,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B91" s="1">
         <v>45616.922569444447</v>
@@ -4099,7 +4101,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B92" s="1">
         <v>45622.922569444447</v>
@@ -4134,7 +4136,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B93" s="1">
         <v>45639.922569444447</v>
@@ -4169,7 +4171,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B94" s="1">
         <v>45611.922569444447</v>
@@ -4204,7 +4206,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
         <v>45610.922569444447</v>
@@ -4239,7 +4241,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B96" s="1">
         <v>45640.922569444447</v>
@@ -4274,7 +4276,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1">
         <v>45639.922569444447</v>
@@ -4309,7 +4311,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B98" s="1">
         <v>45634.922569444447</v>
@@ -4344,7 +4346,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B99" s="1">
         <v>45631.922569444447</v>
@@ -4379,7 +4381,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B100" s="1">
         <v>45631.922569444447</v>
@@ -4414,7 +4416,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B101" s="1">
         <v>45619.922569444447</v>
